--- a/data/trans_bre/P1427-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1427-Edad-trans_bre.xlsx
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.13222179855781</v>
+        <v>-1.303819621032453</v>
       </c>
       <c r="D5" s="5" t="inlineStr"/>
       <c r="E5" s="5" t="n">
@@ -660,7 +660,7 @@
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>3.334065806410146</v>
+        <v>3.703594368846964</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
@@ -714,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.934096901103251</v>
+        <v>-2.57560156793229</v>
       </c>
       <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="inlineStr"/>
@@ -728,10 +728,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8618575236068767</v>
+        <v>0.9751899264187794</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8720010089069719</v>
+        <v>0.8723468357327173</v>
       </c>
       <c r="E9" s="5" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0.2670354378936175</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.3787638361082741</v>
+        <v>0.3787638361082742</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>-0.3084407476329667</v>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.947096750875618</v>
+        <v>-1.003561323402218</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.120505950630782</v>
+        <v>0.120533093663651</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8255176394295362</v>
+        <v>0.6715537578104211</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9304423280204147</v>
+        <v>0.9273480917005041</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.026352534069111</v>
+        <v>1.124065241028674</v>
       </c>
       <c r="F12" s="6" t="inlineStr"/>
       <c r="G12" s="6" t="inlineStr"/>
@@ -832,7 +832,7 @@
         <v>0.4908589002881331</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.07665606814889603</v>
+        <v>0.07665606814889619</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.3262396180747045</v>
@@ -843,7 +843,7 @@
         </is>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06975471689423914</v>
+        <v>0.0697547168942393</v>
       </c>
     </row>
     <row r="14">
@@ -854,18 +854,18 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.261183919355729</v>
+        <v>-1.023858366876071</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1535419452701781</v>
+        <v>0.1547289773533542</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-1.071584593306983</v>
+        <v>-1.02066530804266</v>
       </c>
       <c r="F14" s="6" t="inlineStr"/>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
-        <v>-0.593390994068175</v>
+        <v>-0.5900643863254126</v>
       </c>
     </row>
     <row r="15">
@@ -876,18 +876,18 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8775906358632185</v>
+        <v>0.8734100872636876</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>1.350859855258592</v>
+        <v>1.460897583198124</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.956625828031309</v>
+        <v>0.9920062203693705</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>1.799013603786743</v>
+        <v>1.848439707325518</v>
       </c>
     </row>
     <row r="16">
@@ -908,7 +908,7 @@
         <v>1.671074710034471</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.3100646969958279</v>
+        <v>0.3100646969958286</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.3675266846217429</v>
@@ -917,7 +917,7 @@
         <v>2.554054215836841</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1092009436251689</v>
+        <v>0.1092009436251691</v>
       </c>
     </row>
     <row r="17">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.259396603372102</v>
+        <v>-1.434111985489105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1933364696121335</v>
+        <v>0.3287220659404376</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.382434963313115</v>
+        <v>-1.237565578635827</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.4384778484402115</v>
+        <v>-0.4588124061697967</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.08650086323189543</v>
+        <v>-0.07625505614406328</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3779237203829603</v>
+        <v>-0.3576047594182823</v>
       </c>
     </row>
     <row r="18">
@@ -954,20 +954,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.152794130791033</v>
+        <v>3.117366832347478</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.53170073480366</v>
+        <v>3.656905092311916</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.8574818937676</v>
+        <v>1.877862416607565</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.362968438407322</v>
-      </c>
-      <c r="G18" s="6" t="inlineStr"/>
+        <v>2.441088740290331</v>
+      </c>
+      <c r="G18" s="6" t="n">
+        <v>17.38688905365628</v>
+      </c>
       <c r="H18" s="6" t="n">
-        <v>0.9366134143734058</v>
+        <v>0.9069474989835331</v>
       </c>
     </row>
     <row r="19">
@@ -988,7 +990,7 @@
         <v>2.052307462394901</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2.208886175323536</v>
+        <v>2.208886175323539</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>-0.01723229894284091</v>
@@ -997,7 +999,7 @@
         <v>0.5136287396523634</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2884346089175555</v>
+        <v>0.288434608917556</v>
       </c>
     </row>
     <row r="20">
@@ -1008,22 +1010,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-4.196570190720028</v>
+        <v>-3.966484223805346</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-1.268922450084933</v>
+        <v>-1.50080083639846</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-0.7358505450644549</v>
+        <v>-0.6001298140927945</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.4498249970070183</v>
+        <v>-0.4286863826921254</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.2945894587610999</v>
+        <v>-0.300719960591207</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1069337745794408</v>
+        <v>-0.06570944641512641</v>
       </c>
     </row>
     <row r="21">
@@ -1034,22 +1036,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>3.804087559839248</v>
+        <v>4.223401185444148</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.345454756783992</v>
+        <v>5.250988645693541</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.350082592927134</v>
+        <v>5.234614102589292</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8013113591576232</v>
+        <v>0.9232605677907578</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>2.040153262996446</v>
+        <v>2.04729796243481</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8869075287045197</v>
+        <v>0.8815585443166903</v>
       </c>
     </row>
     <row r="22">
@@ -1070,7 +1072,7 @@
         <v>2.672602007414908</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2.733629510651026</v>
+        <v>2.733629510651023</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.07590137343727732</v>
@@ -1079,7 +1081,7 @@
         <v>0.363368141757674</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.165209590340347</v>
+        <v>0.1652095903403469</v>
       </c>
     </row>
     <row r="23">
@@ -1090,22 +1092,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.567677330525988</v>
+        <v>-4.861367475392277</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.791414094882122</v>
+        <v>-2.078596571458029</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.711129904576563</v>
+        <v>-1.769497763370088</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.3731440653287492</v>
+        <v>-0.3199800297372342</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2001510634753802</v>
+        <v>-0.2222542933315332</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.08835731791316964</v>
+        <v>-0.08548953405338848</v>
       </c>
     </row>
     <row r="24">
@@ -1116,22 +1118,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.984405192532103</v>
+        <v>6.055801285325526</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.401711780706011</v>
+        <v>7.07967185297179</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.728531569709475</v>
+        <v>6.915975299927438</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.6714283842919763</v>
+        <v>0.7668107146501111</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.466899393651531</v>
+        <v>1.312401761818871</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4943205343338978</v>
+        <v>0.4929557999546502</v>
       </c>
     </row>
     <row r="25">
@@ -1152,7 +1154,7 @@
         <v>1.227554569324429</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1.326600719613363</v>
+        <v>1.326600719613362</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.3335523767179392</v>
@@ -1161,7 +1163,7 @@
         <v>1.177441299768697</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4269247570166962</v>
+        <v>0.426924757016696</v>
       </c>
     </row>
     <row r="26">
@@ -1172,22 +1174,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-0.08742677180048393</v>
+        <v>-0.05543236660849103</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.6643709714962553</v>
+        <v>0.5807155272026844</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.6131670327461665</v>
+        <v>0.5605531697107875</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03955566122699851</v>
+        <v>-0.03212621203701804</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.4768050405008286</v>
+        <v>0.4483101905756763</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1737391424766802</v>
+        <v>0.1597615005277319</v>
       </c>
     </row>
     <row r="27">
@@ -1198,22 +1200,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.415895122206625</v>
+        <v>1.386929441536753</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.895201213134668</v>
+        <v>1.832949575587357</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2.04581414742062</v>
+        <v>2.011685039688197</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.9447986469714048</v>
+        <v>0.811961554120347</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>2.269775553079402</v>
+        <v>2.247296773201008</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7418363169531166</v>
+        <v>0.7236128288588995</v>
       </c>
     </row>
     <row r="28">
